--- a/data/output/seat_status_updated_classroom_image3.xlsx
+++ b/data/output/seat_status_updated_classroom_image3.xlsx
@@ -477,22 +477,22 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>239.4441375732422</v>
+        <v>239.6139831542969</v>
       </c>
       <c r="B2" t="n">
-        <v>606.5830078125</v>
+        <v>606.8106079101562</v>
       </c>
       <c r="C2" t="n">
-        <v>319.9717407226562</v>
+        <v>320.2937622070312</v>
       </c>
       <c r="D2" t="n">
-        <v>706.899169921875</v>
+        <v>706.7327880859375</v>
       </c>
       <c r="E2" t="n">
-        <v>279.7079467773438</v>
+        <v>279.953857421875</v>
       </c>
       <c r="F2" t="n">
-        <v>656.7410888671875</v>
+        <v>656.771728515625</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -507,22 +507,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>697.1389770507812</v>
+        <v>697.1461181640625</v>
       </c>
       <c r="B3" t="n">
-        <v>618.8963623046875</v>
+        <v>618.8333129882812</v>
       </c>
       <c r="C3" t="n">
-        <v>789.3609619140625</v>
+        <v>789.427001953125</v>
       </c>
       <c r="D3" t="n">
-        <v>721.4547119140625</v>
+        <v>721.5841674804688</v>
       </c>
       <c r="E3" t="n">
-        <v>743.25</v>
+        <v>743.2865600585938</v>
       </c>
       <c r="F3" t="n">
-        <v>670.175537109375</v>
+        <v>670.208740234375</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,22 +537,22 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>663.512939453125</v>
+        <v>663.2479248046875</v>
       </c>
       <c r="B4" t="n">
-        <v>617.3296508789062</v>
+        <v>617.1636962890625</v>
       </c>
       <c r="C4" t="n">
-        <v>753.0975952148438</v>
+        <v>753.24365234375</v>
       </c>
       <c r="D4" t="n">
-        <v>727.7605590820312</v>
+        <v>727.908447265625</v>
       </c>
       <c r="E4" t="n">
-        <v>708.3052978515625</v>
+        <v>708.2457885742188</v>
       </c>
       <c r="F4" t="n">
-        <v>672.5451049804688</v>
+        <v>672.5360717773438</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -567,22 +567,22 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>781.9957885742188</v>
+        <v>782.03955078125</v>
       </c>
       <c r="B5" t="n">
-        <v>649.5269165039062</v>
+        <v>649.7449951171875</v>
       </c>
       <c r="C5" t="n">
-        <v>849.958740234375</v>
+        <v>850.1865234375</v>
       </c>
       <c r="D5" t="n">
-        <v>729.521728515625</v>
+        <v>729.5850830078125</v>
       </c>
       <c r="E5" t="n">
-        <v>815.977294921875</v>
+        <v>816.113037109375</v>
       </c>
       <c r="F5" t="n">
-        <v>689.5242919921875</v>
+        <v>689.6650390625</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -597,22 +597,22 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1121.119018554688</v>
+        <v>1121.124267578125</v>
       </c>
       <c r="B6" t="n">
-        <v>635.4923095703125</v>
+        <v>635.5344848632812</v>
       </c>
       <c r="C6" t="n">
-        <v>1190.983032226562</v>
+        <v>1191.043090820312</v>
       </c>
       <c r="D6" t="n">
-        <v>747.14990234375</v>
+        <v>746.629150390625</v>
       </c>
       <c r="E6" t="n">
-        <v>1156.051025390625</v>
+        <v>1156.083740234375</v>
       </c>
       <c r="F6" t="n">
-        <v>691.3211059570312</v>
+        <v>691.081787109375</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -627,22 +627,22 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>244.0703125</v>
+        <v>244.157470703125</v>
       </c>
       <c r="B7" t="n">
-        <v>612.59765625</v>
+        <v>612.9065551757812</v>
       </c>
       <c r="C7" t="n">
-        <v>396.5215759277344</v>
+        <v>396.5097045898438</v>
       </c>
       <c r="D7" t="n">
-        <v>776.4393310546875</v>
+        <v>776.3756713867188</v>
       </c>
       <c r="E7" t="n">
-        <v>320.2959594726562</v>
+        <v>320.3335876464844</v>
       </c>
       <c r="F7" t="n">
-        <v>694.5184936523438</v>
+        <v>694.64111328125</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -657,22 +657,22 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>332.1939086914062</v>
+        <v>332.2527160644531</v>
       </c>
       <c r="B8" t="n">
-        <v>620.8560791015625</v>
+        <v>621.104248046875</v>
       </c>
       <c r="C8" t="n">
-        <v>437.7020263671875</v>
+        <v>437.6530456542969</v>
       </c>
       <c r="D8" t="n">
-        <v>781.0877075195312</v>
+        <v>781.0403442382812</v>
       </c>
       <c r="E8" t="n">
-        <v>384.9479675292969</v>
+        <v>384.952880859375</v>
       </c>
       <c r="F8" t="n">
-        <v>700.971923828125</v>
+        <v>701.072265625</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -687,22 +687,22 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>45.76479721069336</v>
+        <v>45.9044303894043</v>
       </c>
       <c r="B9" t="n">
-        <v>610.197998046875</v>
+        <v>610.3397827148438</v>
       </c>
       <c r="C9" t="n">
-        <v>132.6514282226562</v>
+        <v>132.5385589599609</v>
       </c>
       <c r="D9" t="n">
-        <v>792.1008911132812</v>
+        <v>792.1033935546875</v>
       </c>
       <c r="E9" t="n">
-        <v>89.20811462402344</v>
+        <v>89.22149658203125</v>
       </c>
       <c r="F9" t="n">
-        <v>701.1494140625</v>
+        <v>701.2215576171875</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -717,22 +717,22 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>409.6969909667969</v>
+        <v>410.098388671875</v>
       </c>
       <c r="B10" t="n">
-        <v>629.7118530273438</v>
+        <v>629.8168334960938</v>
       </c>
       <c r="C10" t="n">
-        <v>491.9682006835938</v>
+        <v>491.9994812011719</v>
       </c>
       <c r="D10" t="n">
-        <v>806.8102416992188</v>
+        <v>806.6553344726562</v>
       </c>
       <c r="E10" t="n">
-        <v>450.8325805664062</v>
+        <v>451.0489501953125</v>
       </c>
       <c r="F10" t="n">
-        <v>718.2610473632812</v>
+        <v>718.236083984375</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -747,22 +747,22 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1346.141479492188</v>
+        <v>1345.999633789062</v>
       </c>
       <c r="B11" t="n">
-        <v>695.53466796875</v>
+        <v>695.6399536132812</v>
       </c>
       <c r="C11" t="n">
-        <v>1461.01123046875</v>
+        <v>1461.132934570312</v>
       </c>
       <c r="D11" t="n">
-        <v>761.9515991210938</v>
+        <v>761.9895629882812</v>
       </c>
       <c r="E11" t="n">
-        <v>1403.576416015625</v>
+        <v>1403.566284179688</v>
       </c>
       <c r="F11" t="n">
-        <v>728.7431640625</v>
+        <v>728.8147583007812</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -777,22 +777,22 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>463.4656982421875</v>
+        <v>463.3041381835938</v>
       </c>
       <c r="B12" t="n">
-        <v>648.946533203125</v>
+        <v>649.0599975585938</v>
       </c>
       <c r="C12" t="n">
-        <v>625.4425048828125</v>
+        <v>625.3585815429688</v>
       </c>
       <c r="D12" t="n">
-        <v>838.8934326171875</v>
+        <v>839.0484008789062</v>
       </c>
       <c r="E12" t="n">
-        <v>544.4541015625</v>
+        <v>544.3313598632812</v>
       </c>
       <c r="F12" t="n">
-        <v>743.9199829101562</v>
+        <v>744.05419921875</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -807,22 +807,22 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>71.59481811523438</v>
+        <v>71.71115112304688</v>
       </c>
       <c r="B13" t="n">
-        <v>625.5802612304688</v>
+        <v>625.3800659179688</v>
       </c>
       <c r="C13" t="n">
-        <v>312.582763671875</v>
+        <v>312.6034545898438</v>
       </c>
       <c r="D13" t="n">
-        <v>919.6212768554688</v>
+        <v>919.7880249023438</v>
       </c>
       <c r="E13" t="n">
-        <v>192.0887908935547</v>
+        <v>192.1573028564453</v>
       </c>
       <c r="F13" t="n">
-        <v>772.6007690429688</v>
+        <v>772.5840454101562</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -837,22 +837,22 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1174.248901367188</v>
+        <v>1174.241821289062</v>
       </c>
       <c r="B14" t="n">
-        <v>669.0838012695312</v>
+        <v>669.4338989257812</v>
       </c>
       <c r="C14" t="n">
-        <v>1283.514404296875</v>
+        <v>1285.072631835938</v>
       </c>
       <c r="D14" t="n">
-        <v>887.376953125</v>
+        <v>886.4602661132812</v>
       </c>
       <c r="E14" t="n">
-        <v>1228.881591796875</v>
+        <v>1229.6572265625</v>
       </c>
       <c r="F14" t="n">
-        <v>778.2303466796875</v>
+        <v>777.9470825195312</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -867,22 +867,22 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>717.324462890625</v>
+        <v>717.2167358398438</v>
       </c>
       <c r="B15" t="n">
-        <v>707.111328125</v>
+        <v>707.0609741210938</v>
       </c>
       <c r="C15" t="n">
-        <v>831.0787353515625</v>
+        <v>830.7698974609375</v>
       </c>
       <c r="D15" t="n">
-        <v>862.10693359375</v>
+        <v>861.8851928710938</v>
       </c>
       <c r="E15" t="n">
-        <v>774.2015991210938</v>
+        <v>773.9932861328125</v>
       </c>
       <c r="F15" t="n">
-        <v>784.609130859375</v>
+        <v>784.4730834960938</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -897,22 +897,22 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>979.7686767578125</v>
+        <v>979.9398803710938</v>
       </c>
       <c r="B16" t="n">
-        <v>673.9381103515625</v>
+        <v>674.369140625</v>
       </c>
       <c r="C16" t="n">
-        <v>1148.8408203125</v>
+        <v>1148.839965820312</v>
       </c>
       <c r="D16" t="n">
-        <v>912.5454711914062</v>
+        <v>912.3822631835938</v>
       </c>
       <c r="E16" t="n">
-        <v>1064.3046875</v>
+        <v>1064.389892578125</v>
       </c>
       <c r="F16" t="n">
-        <v>793.2418212890625</v>
+        <v>793.375732421875</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -927,22 +927,22 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1475.965454101562</v>
+        <v>1475.882690429688</v>
       </c>
       <c r="B17" t="n">
-        <v>723.677001953125</v>
+        <v>723.8413696289062</v>
       </c>
       <c r="C17" t="n">
-        <v>1599.092895507812</v>
+        <v>1599.098388671875</v>
       </c>
       <c r="D17" t="n">
-        <v>952.644287109375</v>
+        <v>952.708251953125</v>
       </c>
       <c r="E17" t="n">
-        <v>1537.529174804688</v>
+        <v>1537.490478515625</v>
       </c>
       <c r="F17" t="n">
-        <v>838.16064453125</v>
+        <v>838.2747802734375</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -957,22 +957,22 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>1217.194091796875</v>
+        <v>1217.341064453125</v>
       </c>
       <c r="B18" t="n">
-        <v>737.5526123046875</v>
+        <v>737.4535522460938</v>
       </c>
       <c r="C18" t="n">
-        <v>1481.765869140625</v>
+        <v>1481.393432617188</v>
       </c>
       <c r="D18" t="n">
-        <v>1049.830200195312</v>
+        <v>1049.967041015625</v>
       </c>
       <c r="E18" t="n">
-        <v>1349.47998046875</v>
+        <v>1349.3671875</v>
       </c>
       <c r="F18" t="n">
-        <v>893.69140625</v>
+        <v>893.7103271484375</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -987,22 +987,22 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>771.640625</v>
+        <v>771.6788940429688</v>
       </c>
       <c r="B19" t="n">
-        <v>721.9400634765625</v>
+        <v>722.3909912109375</v>
       </c>
       <c r="C19" t="n">
-        <v>1067.098510742188</v>
+        <v>1067.224609375</v>
       </c>
       <c r="D19" t="n">
-        <v>1088.156005859375</v>
+        <v>1087.428466796875</v>
       </c>
       <c r="E19" t="n">
-        <v>919.3695678710938</v>
+        <v>919.4517822265625</v>
       </c>
       <c r="F19" t="n">
-        <v>905.0480346679688</v>
+        <v>904.9097290039062</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1017,22 +1017,22 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>342.7215576171875</v>
+        <v>342.7396850585938</v>
       </c>
       <c r="B20" t="n">
-        <v>813.344970703125</v>
+        <v>813.3820190429688</v>
       </c>
       <c r="C20" t="n">
-        <v>617.6412963867188</v>
+        <v>617.7901611328125</v>
       </c>
       <c r="D20" t="n">
         <v>1200</v>
       </c>
       <c r="E20" t="n">
-        <v>480.1814270019531</v>
+        <v>480.2649230957031</v>
       </c>
       <c r="F20" t="n">
-        <v>1006.672485351562</v>
+        <v>1006.691040039062</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1047,22 +1047,22 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>555.27001953125</v>
+        <v>555.5523681640625</v>
       </c>
       <c r="B21" t="n">
-        <v>837.4755859375</v>
+        <v>837.8182373046875</v>
       </c>
       <c r="C21" t="n">
-        <v>921.25341796875</v>
+        <v>921.3571166992188</v>
       </c>
       <c r="D21" t="n">
-        <v>1199.241577148438</v>
+        <v>1199.277954101562</v>
       </c>
       <c r="E21" t="n">
-        <v>738.26171875</v>
+        <v>738.4547119140625</v>
       </c>
       <c r="F21" t="n">
-        <v>1018.358581542969</v>
+        <v>1018.548095703125</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1077,22 +1077,22 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.709385871887207</v>
+        <v>0.7169413566589355</v>
       </c>
       <c r="B22" t="n">
-        <v>962.4552001953125</v>
+        <v>962.303466796875</v>
       </c>
       <c r="C22" t="n">
-        <v>51.4536247253418</v>
+        <v>51.36589050292969</v>
       </c>
       <c r="D22" t="n">
         <v>1200</v>
       </c>
       <c r="E22" t="n">
-        <v>26.08150482177734</v>
+        <v>26.04141616821289</v>
       </c>
       <c r="F22" t="n">
-        <v>1081.2275390625</v>
+        <v>1081.151733398438</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
